--- a/opm_hero_property/heroes/112.xlsx
+++ b/opm_hero_property/heroes/112.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>112</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5613164.22464844</v>
+        <v>6512163.94237644</v>
       </c>
       <c r="U2" t="n">
-        <v>929858.2713929999</v>
+        <v>1079738.741273</v>
       </c>
       <c r="V2" t="n">
-        <v>849282.33695461</v>
+        <v>989997.59800261</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11427065.136575</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2271110.040091625</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2920144.810926001</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1828188.5</v>
+      </c>
+      <c r="AU2" t="n">
         <v>627506.1580825225</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16926890.23474915</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19669177.94567515</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>112</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>708340.44385038</v>
+        <v>809581.90850638</v>
       </c>
       <c r="U3" t="n">
-        <v>132960.326141</v>
+        <v>149838.647701</v>
       </c>
       <c r="V3" t="n">
-        <v>112785.63842133</v>
+        <v>128962.08756533</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1295520.824975</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>257556.392521625</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>582584.265998</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>207140.8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73608.7476493025</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2288614.615145928</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2599331.081143927</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>112</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7836.794400000001</v>
+        <v>8309.794400000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1495.1899</v>
+        <v>1574.1899</v>
       </c>
       <c r="V4" t="n">
-        <v>621.7396</v>
+        <v>695.7396</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18959.20741</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23458.10741</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1443.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24901.70741</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>112</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20992.3045</v>
+        <v>34909.3045</v>
       </c>
       <c r="U5" t="n">
-        <v>3714.9722</v>
+        <v>6034.9722</v>
       </c>
       <c r="V5" t="n">
-        <v>1903.503</v>
+        <v>4081.503</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48360.65493</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60267.45493000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42448.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102715.95493</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>112</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>58882.432</v>
+        <v>118546.432</v>
       </c>
       <c r="U6" t="n">
-        <v>9539.4</v>
+        <v>19486.4</v>
       </c>
       <c r="V6" t="n">
-        <v>6119.314</v>
+        <v>15457.314</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>116202.0475</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164457.8475</v>
+      <c r="AT6" t="n">
+        <v>181991.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>346449.6475</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>112</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>69382.7208192</v>
+        <v>129046.7208192</v>
       </c>
       <c r="U7" t="n">
-        <v>10290.84176</v>
+        <v>20237.84176</v>
       </c>
       <c r="V7" t="n">
-        <v>7389.411650200001</v>
+        <v>16727.4116502</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>116202.0475</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>181991.8</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22988.29845185</v>
       </c>
-      <c r="AS7" t="n">
-        <v>187628.14595185</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>369619.94595185</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>112</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>80161.8706624</v>
+        <v>139825.8706624</v>
       </c>
       <c r="U8" t="n">
-        <v>11093.15532</v>
+        <v>21040.15532</v>
       </c>
       <c r="V8" t="n">
-        <v>8682.160001800001</v>
+        <v>18020.1600018</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>116202.0475</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>756.5642215</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>181991.8</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45980.15065925</v>
       </c>
-      <c r="AS8" t="n">
-        <v>211376.56238075</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>393368.3623807501</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>112</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>248574.8704</v>
+        <v>426979.949104</v>
       </c>
       <c r="U9" t="n">
-        <v>38511.208</v>
+        <v>67067.01008000001</v>
       </c>
       <c r="V9" t="n">
-        <v>29832.7205</v>
+        <v>56007.717705</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>696985.348475</v>
+        <v>44164.94698475</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1223051.69545975</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>112</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>261138.60956704</v>
+        <v>497052.4346599187</v>
       </c>
       <c r="U10" t="n">
-        <v>39531.7219552</v>
+        <v>77260.2429004672</v>
       </c>
       <c r="V10" t="n">
-        <v>31304.12790065</v>
+        <v>64010.9493575517</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3423.416103575</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44164.94698475</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24642.4619080825</v>
       </c>
-      <c r="AS10" t="n">
-        <v>725051.2264866575</v>
+      <c r="AV10" t="n">
+        <v>252706.0960076572</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1409476.069479065</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>112</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>319014.696792</v>
+        <v>620145.011454928</v>
       </c>
       <c r="U11" t="n">
-        <v>44895.946512</v>
+        <v>91528.267541312</v>
       </c>
       <c r="V11" t="n">
-        <v>37905.48906235</v>
+        <v>77857.1350201623</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA11" t="n">
-        <v>3130</v>
+        <v>3140</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>37870.077139325</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44164.94698475</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123255.3642189875</v>
       </c>
-      <c r="AS11" t="n">
-        <v>858110.7898333126</v>
+      <c r="AV11" t="n">
+        <v>421016.5470378515</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1710846.083855914</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>112</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>331713.24772</v>
+        <v>715572.267278904</v>
       </c>
       <c r="U12" t="n">
-        <v>47029.561072</v>
+        <v>103163.231778192</v>
       </c>
       <c r="V12" t="n">
-        <v>39090.47508735</v>
+        <v>90047.00612862869</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="AA12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>72316.73817507501</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44164.94698475</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123255.3642189875</v>
       </c>
-      <c r="AS12" t="n">
-        <v>892557.4508690627</v>
+      <c r="AV12" t="n">
+        <v>632702.6539342313</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1956978.851788044</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>112</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>399596.22313936</v>
+        <v>880952.8011820705</v>
       </c>
       <c r="U13" t="n">
-        <v>53109.497504</v>
+        <v>122219.110875264</v>
       </c>
       <c r="V13" t="n">
-        <v>46920.13652854999</v>
+        <v>109058.9853503591</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>3630</v>
+        <v>3680</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>106763.399210825</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44164.94698475</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU13" t="n">
         <v>243876.2932702975</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1047625.040956123</v>
+      <c r="AV13" t="n">
+        <v>884392.5440450844</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2363736.331985957</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>112</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>344411.7986480001</v>
+        <v>957529.175464896</v>
       </c>
       <c r="U14" t="n">
-        <v>49163.175632</v>
+        <v>133020.649177088</v>
       </c>
       <c r="V14" t="n">
-        <v>40275.46111234999</v>
+        <v>112429.5253169664</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="AA14" t="n">
-        <v>3630</v>
+        <v>3680</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>528819.698475</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>106763.399210825</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43982.94698475</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>426438.8</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123255.3642189875</v>
       </c>
-      <c r="AS14" t="n">
-        <v>926822.1119048125</v>
+      <c r="AV14" t="n">
+        <v>1175501.066469797</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2534041.92535936</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>112</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>495270.6119347999</v>
+        <v>1504410.259597876</v>
       </c>
       <c r="U15" t="n">
-        <v>73816.50493011999</v>
+        <v>223617.2599873484</v>
       </c>
       <c r="V15" t="n">
-        <v>65576.720867</v>
+        <v>190286.359618481</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA15" t="n">
-        <v>3630</v>
+        <v>3730</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>816511.67352</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>163441.05434884</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127733.5334704</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>780236.6000000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>154882.813069038</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1393635.140937878</v>
+      <c r="AV15" t="n">
+        <v>1964494.946908568</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4154680.421316846</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>112</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>507072.6466596</v>
+        <v>1545070.015860956</v>
       </c>
       <c r="U16" t="n">
-        <v>74659.89555203999</v>
+        <v>228658.9116978914</v>
       </c>
       <c r="V16" t="n">
-        <v>66999.00263800001</v>
+        <v>195219.938098242</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA16" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>816511.67352</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>163441.05434884</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127915.5334704</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>780236.6000000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>180682.363268336</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1419616.691137176</v>
+      <c r="AV16" t="n">
+        <v>2043710.626033723</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4259877.650641299</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>112</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1134943.28573039</v>
+        <v>2755938.66009389</v>
       </c>
       <c r="U17" t="n">
-        <v>183768.53323528</v>
+        <v>417986.3367907162</v>
       </c>
       <c r="V17" t="n">
-        <v>178914.11696</v>
+        <v>383853.04352512</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA17" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1877242.29338</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>372056.40046346</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>760658.6917352</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1246637.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>239818.993730362</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3444576.837573822</v>
+      <c r="AV17" t="n">
+        <v>3096203.104910249</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7862473.884219271</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>112</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5613164.22464844</v>
+        <v>9741527.980465187</v>
       </c>
       <c r="U18" t="n">
-        <v>929858.2713929999</v>
+        <v>1475691.512743214</v>
       </c>
       <c r="V18" t="n">
-        <v>849282.33695461</v>
+        <v>1329979.058566918</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA18" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11427065.136575</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2271110.040091625</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2920144.810926001</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1828188.5</v>
+      </c>
+      <c r="AU18" t="n">
         <v>627506.1580825225</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16926890.23474915</v>
+      <c r="AV18" t="n">
+        <v>7918731.559477992</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27587909.50515314</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>112</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9070272.058993841</v>
+        <v>16585750.49534599</v>
       </c>
       <c r="U19" t="n">
-        <v>1523932.261754</v>
+        <v>2643833.209471136</v>
       </c>
       <c r="V19" t="n">
-        <v>1372905.38190011</v>
+        <v>2354491.35834765</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="AA19" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18539414.48055</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3686226.07238955</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6248216.0220825</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1828188.5</v>
+      </c>
+      <c r="AU19" t="n">
         <v>627506.1580825225</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27496307.11102207</v>
+      <c r="AV19" t="n">
+        <v>16280337.41809124</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48385621.45119581</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>112</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>223410.9226862</v>
+        <v>230129.9226862</v>
       </c>
       <c r="U20" t="n">
-        <v>39469.97939248</v>
+        <v>40589.97939248</v>
       </c>
       <c r="V20" t="n">
-        <v>26459.69728352</v>
+        <v>27532.69728352</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>555989.09762</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3624.00502874</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20616.75</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12844.237225812</v>
       </c>
-      <c r="AS20" t="n">
-        <v>652646.5398745519</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>673263.2898745519</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>112</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>294248.68915248</v>
+        <v>308121.63218848</v>
       </c>
       <c r="U21" t="n">
-        <v>50141.86503368</v>
+        <v>52475.66104768</v>
       </c>
       <c r="V21" t="n">
-        <v>36892.34955039999</v>
+        <v>39048.25459039999</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>661063.9512600001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>47333.00049102</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72109.9895126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35770.2</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17333.416048652</v>
       </c>
-      <c r="AS21" t="n">
-        <v>859373.8177996719</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>901746.407312272</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>112</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>421770.45109984</v>
+        <v>551288.2051633981</v>
       </c>
       <c r="U22" t="n">
-        <v>67549.380621</v>
+        <v>86016.39984180899</v>
       </c>
       <c r="V22" t="n">
-        <v>55741.008774</v>
+        <v>71641.09703335601</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>839997.860145</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>113892.436581065</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103781.12860145</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>48309.85000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33119.981109175</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1219941.97783524</v>
+      <c r="AV22" t="n">
+        <v>292264.1155769872</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1568907.672013677</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>112</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>488725.1421033</v>
+        <v>710768.0665101018</v>
       </c>
       <c r="U23" t="n">
-        <v>80590.36942078</v>
+        <v>115899.9039700063</v>
       </c>
       <c r="V23" t="n">
-        <v>66842.53256400001</v>
+        <v>94936.72945255201</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA23" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>917794.29421</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>183386.19402107</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170062.3858842</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>88400.3</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43863.015118612</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1441289.753349682</v>
+      <c r="AV23" t="n">
+        <v>522880.6590214369</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2070910.098255319</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>112</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>560513.575022</v>
+        <v>888557.257402492</v>
       </c>
       <c r="U24" t="n">
-        <v>97748.85494152</v>
+        <v>150783.1392825267</v>
       </c>
       <c r="V24" t="n">
-        <v>81984.12083796001</v>
+        <v>125103.0931642747</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA24" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1040565.02181</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>207468.25945967</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>302407.8008724</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>141253.2</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53079.737667088</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1719263.868936758</v>
+      <c r="AV24" t="n">
+        <v>761471.5343373474</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2663578.204146505</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>112</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>708340.44385038</v>
+        <v>1508305.111857493</v>
       </c>
       <c r="U25" t="n">
-        <v>132960.326141</v>
+        <v>258688.528291161</v>
       </c>
       <c r="V25" t="n">
-        <v>112785.63842133</v>
+        <v>218750.2683567712</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA25" t="n">
-        <v>3630</v>
+        <v>3830</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1295520.824975</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>257556.392521625</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>582584.265998</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>207140.8</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73608.7476493025</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2288614.615145928</v>
+      <c r="AV25" t="n">
+        <v>1968469.418974011</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4567800.500117939</v>
       </c>
     </row>
   </sheetData>
